--- a/medicine/Enfance/Cérémonie_de_la_majorité/Cérémonie_de_la_majorité.xlsx
+++ b/medicine/Enfance/Cérémonie_de_la_majorité/Cérémonie_de_la_majorité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9r%C3%A9monie_de_la_majorit%C3%A9</t>
+          <t>Cérémonie_de_la_majorité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cérémonie de la majorité (sinogrammes simplifiés : 成人礼) est une cérémonie traditionnelle qui existe dans plusieurs pays d'Asie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9r%C3%A9monie_de_la_majorit%C3%A9</t>
+          <t>Cérémonie_de_la_majorité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>En Chine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le livre Classique des rites (IIe siècle av. J.-C., durant cette cérémonie, les jeunes Hans, de 20 ans pour les hommes, 15 ans pour les femmes, passent de l’adolescence à l’âge adulte. Traditionnellement c’est après cette cérémonie qu’on les considère comme de vrais adultes avec des responsabilités familiales et sociales. Anciennement, tous les Hans adultes y participaient. Actuellement très peu y participent, puisqu'on estime à moins de un sur 1 000 le nombre de Hans adultes ayant participé à cette cérémonie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9r%C3%A9monie_de_la_majorit%C3%A9</t>
+          <t>Cérémonie_de_la_majorité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Au Japon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est, au Japon également, une cérémonie, connue sous le nom de seijin shiki (成人式?), qui se célèbre lorsque les jeunes gens atteignent 20 ans. Elle a lieu chaque année à une date déterminée, le « jour de la majorité » (成人の日, seijin no hi?) - dans les bureaux locaux ou préfectoraux. En 2012, ce sont les personnes nées en 1991 qui célèbrent cette cérémonie (c'est-à-dire les personnes ayant atteint vingt ans en 2011)[1]. 
-Si, sous sa forme actuelle, la cérémonie de la majorité date de 1948, elle correspond cependant à une longue tradition japonaise : ainsi, au début du XIe siècle, la cérémonie de la majorité de l'empereur Go-ichijō a été présidée par Fujiwara no Michinaga[2]. Dans le Japon historique, la cérémonie de la majorité porte le nom de genpuku.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est, au Japon également, une cérémonie, connue sous le nom de seijin shiki (成人式?), qui se célèbre lorsque les jeunes gens atteignent 20 ans. Elle a lieu chaque année à une date déterminée, le « jour de la majorité » (成人の日, seijin no hi?) - dans les bureaux locaux ou préfectoraux. En 2012, ce sont les personnes nées en 1991 qui célèbrent cette cérémonie (c'est-à-dire les personnes ayant atteint vingt ans en 2011). 
+Si, sous sa forme actuelle, la cérémonie de la majorité date de 1948, elle correspond cependant à une longue tradition japonaise : ainsi, au début du XIe siècle, la cérémonie de la majorité de l'empereur Go-ichijō a été présidée par Fujiwara no Michinaga. Dans le Japon historique, la cérémonie de la majorité porte le nom de genpuku.
 </t>
         </is>
       </c>
